--- a/medicine/Enfance/La_Résurrection_de_l'épouvanteur/La_Résurrection_de_l'épouvanteur.xlsx
+++ b/medicine/Enfance/La_Résurrection_de_l'épouvanteur/La_Résurrection_de_l'épouvanteur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_R%C3%A9surrection_de_l%27%C3%A9pouvanteur</t>
+          <t>La_Résurrection_de_l'épouvanteur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Résurrection de l'épouvanteur (titre original : The Dark Army) est le deuxième tome de la série The Starblade Chronicles signée Joseph Delaney et qui prend la suite de la série L'Épouvanteur. Il est paru en 2016. L'éditeur français le présente comme le quinzième volume de la série L'Épouvanteur.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_R%C3%A9surrection_de_l%27%C3%A9pouvanteur</t>
+          <t>La_Résurrection_de_l'épouvanteur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas Ward, le nouvel épouvanteur, combattait l'obscur dans le Comté avec son apprentie quand il a été appelé par Grimalkin dans les terres lointaines des Kobalos. La sorcière a conçu un plan : Une fois que Tom aura tué un de leurs meilleurs guerriers, il pourra mener les armées des principautés environnantes combattre Lenklewth un puissant mage Kobalos. La sorcière pourra en apprendre davantage sur les capacités magiques et stratégiques de leurs ennemis, qui s'apprêtent à condamner la Terre à un hiver éternel. Tom a vaincu le guerrier, mais il est mort lui aussi. Et ceux qui ont mis tous leurs espoirs en lui désespèrent. Qui prendra la tête des troupes,avant que l'armée noire ne les submerge et ne répande la guerre jusque dans le Comté ? Au moment où le cercueil de Tom s'apprête à être enseveli sous terre, un bruit s'élève de la tombe et le cadavre du jeune épouvanteur se met à tournoyer dans les airs...avant d'émettre un grognement. Tom est de retour !
 </t>
